--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_8_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_8_square_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.25000000000051</v>
+        <v>24.78000000000043</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0007345702092003137</v>
+        <v>0.002927170793914469</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0007345702092003137</v>
+        <v>0.002927170793914469</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>38.95105790688179</v>
+        <v>38.7019213866825</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[13.821086990513379, 64.08102882325021]</t>
+          <t>[12.590388441705045, 64.81345433165995]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.003137281976015149</v>
+        <v>0.004569479995429004</v>
       </c>
       <c r="O2" t="n">
-        <v>0.003137281976015149</v>
+        <v>0.004569479995429004</v>
       </c>
       <c r="P2" t="n">
-        <v>2.018921405009657</v>
+        <v>1.691868716347656</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.3270791789938858, 2.7107636310254275]</t>
+          <t>[0.798763297309117, 2.5849741353861955]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>4.744254624711175e-07</v>
+        <v>0.0004120771717011085</v>
       </c>
       <c r="S2" t="n">
-        <v>4.744254624711175e-07</v>
+        <v>0.0004120771717011085</v>
       </c>
       <c r="T2" t="n">
-        <v>49.66082229274275</v>
+        <v>56.82274686123396</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[35.875679714644384, 63.44596487084112]</t>
+          <t>[41.469366372470034, 72.17612734999788]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>4.260865216210163e-09</v>
+        <v>2.171652635496457e-09</v>
       </c>
       <c r="W2" t="n">
-        <v>4.260865216210163e-09</v>
+        <v>2.171652635496457e-09</v>
       </c>
       <c r="X2" t="n">
-        <v>17.13663663663698</v>
+        <v>18.10750750750783</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.35635635635664</v>
+        <v>14.58522522522548</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.91691691691732</v>
+        <v>21.62978978979017</v>
       </c>
     </row>
     <row r="3">
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.25000000000051</v>
+        <v>24.78000000000043</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0009888600846977846</v>
+        <v>0.02032794810773719</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0009888600846977846</v>
+        <v>0.02032794810773719</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>50.11185612759073</v>
+        <v>40.26889355157563</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[21.52370376366261, 78.70000849151884]</t>
+          <t>[2.4970651885962383, 78.04072191455502]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0009702024864730596</v>
+        <v>0.03719675012642609</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0009702024864730596</v>
+        <v>0.03719675012642609</v>
       </c>
       <c r="P3" t="n">
-        <v>1.566079220708426</v>
+        <v>1.062921238151501</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.761026448617347, 2.371131992799505]</t>
+          <t>[-0.20755266780473214, 2.333395144107735]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.0003007087982296319</v>
+        <v>0.09889962121933005</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0003007087982296319</v>
+        <v>0.09889962121933005</v>
       </c>
       <c r="T3" t="n">
-        <v>66.56184626511276</v>
+        <v>78.77305579097774</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[48.393029560703866, 84.73066296952166]</t>
+          <t>[59.025608608510765, 98.5205029734447]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.805569998542978e-09</v>
+        <v>3.072868626219361e-10</v>
       </c>
       <c r="W3" t="n">
-        <v>2.805569998542978e-09</v>
+        <v>3.072868626219361e-10</v>
       </c>
       <c r="X3" t="n">
-        <v>18.95645645645683</v>
+        <v>20.58798798798835</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.72122122122153</v>
+        <v>15.57741741741769</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.19169169169214</v>
+        <v>25.59855855855901</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.25000000000051</v>
+        <v>24.78000000000043</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.637140149586159e-07</v>
+        <v>0.000552032042940187</v>
       </c>
       <c r="I4" t="n">
-        <v>2.637140149586159e-07</v>
+        <v>0.000552032042940187</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>76.31761604312194</v>
+        <v>40.47540408549336</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[50.77256921859792, 101.86266286764597]</t>
+          <t>[14.993140263636107, 65.95766790735061]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2.943338297534126e-07</v>
+        <v>0.002526144366455707</v>
       </c>
       <c r="O4" t="n">
-        <v>2.943338297534126e-07</v>
+        <v>0.002526144366455707</v>
       </c>
       <c r="P4" t="n">
-        <v>1.540921321580579</v>
+        <v>1.050342288587578</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.1383949355350396, 1.9434477076261185]</t>
+          <t>[0.3962369112635775, 1.7044476659115793]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>9.132854472682084e-10</v>
+        <v>0.002287978266036106</v>
       </c>
       <c r="S4" t="n">
-        <v>9.132854472682084e-10</v>
+        <v>0.002287978266036106</v>
       </c>
       <c r="T4" t="n">
-        <v>77.01541229914986</v>
+        <v>59.55796152866405</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[60.07127244109252, 93.9595521572072]</t>
+          <t>[45.86021082775358, 73.25571222957453]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>7.674971769233707e-12</v>
+        <v>2.798139497883767e-11</v>
       </c>
       <c r="W4" t="n">
-        <v>7.674971769233707e-12</v>
+        <v>2.798139497883767e-11</v>
       </c>
       <c r="X4" t="n">
-        <v>19.05755755755794</v>
+        <v>20.63759759759796</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.43993993994029</v>
+        <v>18.05789789789821</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.67517517517559</v>
+        <v>23.2172972972977</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.25000000000051</v>
+        <v>24.78000000000043</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.825714492056154e-05</v>
+        <v>0.00481580088057465</v>
       </c>
       <c r="I5" t="n">
-        <v>3.825714492056154e-05</v>
+        <v>0.00481580088057465</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>61.21614789838985</v>
+        <v>42.48786522296487</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[28.89099311615655, 93.54130268062315]</t>
+          <t>[10.683753713985723, 74.29197673194402]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0004136115485031677</v>
+        <v>0.00997164277332141</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0004136115485031677</v>
+        <v>0.00997164277332141</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9245527929483472</v>
+        <v>1.062921238151501</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.39623691126357663, 1.4528686746331179]</t>
+          <t>[0.2201316173686534, 1.9057108589343494]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.0009870149569923825</v>
+        <v>0.01460119155763562</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0009870149569923825</v>
+        <v>0.01460119155763562</v>
       </c>
       <c r="T5" t="n">
-        <v>74.67023926151201</v>
+        <v>60.33201655924363</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[57.53153338928038, 91.80894513374363]</t>
+          <t>[42.83518103221765, 77.82885208626962]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.640110352558622e-11</v>
+        <v>1.229702939475885e-08</v>
       </c>
       <c r="W5" t="n">
-        <v>2.640110352558622e-11</v>
+        <v>1.229702939475885e-08</v>
       </c>
       <c r="X5" t="n">
-        <v>21.53453453453497</v>
+        <v>20.58798798798835</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.4114114114118</v>
+        <v>17.26414414414445</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.65765765765814</v>
+        <v>23.91183183183225</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.99000000000062</v>
+        <v>25.40000000000053</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.246443839064693e-05</v>
+        <v>0.3182479453704019</v>
       </c>
       <c r="I6" t="n">
-        <v>1.246443839064693e-05</v>
+        <v>0.3182479453704019</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>50.08245478811072</v>
+        <v>21.82979148571616</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[24.907411783552106, 75.25749779266933]</t>
+          <t>[-13.710402843472433, 57.36998581490475]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.000228387971073607</v>
+        <v>0.2224599450487097</v>
       </c>
       <c r="O6" t="n">
-        <v>0.000228387971073607</v>
+        <v>0.2224599450487097</v>
       </c>
       <c r="P6" t="n">
-        <v>0.7736053981812709</v>
+        <v>-0.0503157982556921</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.30818426431611634, 1.2390265320464255]</t>
+          <t>[-3.163605815326658, 3.062974218815274]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.001653714695703634</v>
+        <v>0.9741764665220474</v>
       </c>
       <c r="S6" t="n">
-        <v>0.001653714695703634</v>
+        <v>0.9741764665220474</v>
       </c>
       <c r="T6" t="n">
-        <v>61.59246505535696</v>
+        <v>65.46664107622792</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[48.72131208740598, 74.46361802330794]</t>
+          <t>[45.69510862768205, 85.23817352477377]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.62891922173003e-12</v>
+        <v>3.160205430674523e-08</v>
       </c>
       <c r="W6" t="n">
-        <v>1.62891922173003e-12</v>
+        <v>3.160205430674523e-08</v>
       </c>
       <c r="X6" t="n">
-        <v>22.79003003003058</v>
+        <v>0.2034034034034065</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.86484484484534</v>
+        <v>-12.38218218218244</v>
       </c>
       <c r="Z6" t="n">
-        <v>24.71521521521581</v>
+        <v>12.78898898898925</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.99000000000062</v>
+        <v>25.40000000000053</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>5.503647203530804e-07</v>
+        <v>0.001737056516448621</v>
       </c>
       <c r="I7" t="n">
-        <v>5.503647203530804e-07</v>
+        <v>0.001737056516448621</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>76.62275014248706</v>
+        <v>44.72107626574949</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[44.380235972301875, 108.86526431267225]</t>
+          <t>[14.670378177731862, 74.77177435376711]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.866641176118122e-05</v>
+        <v>0.00442123268499417</v>
       </c>
       <c r="O7" t="n">
-        <v>1.866641176118122e-05</v>
+        <v>0.00442123268499417</v>
       </c>
       <c r="P7" t="n">
-        <v>0.6729738016698859</v>
+        <v>0.3710790121357324</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.25786846606042335, 1.0880791372793484]</t>
+          <t>[-0.3585000625718058, 1.1006580868432705]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.002094483245871803</v>
+        <v>0.3111150433831364</v>
       </c>
       <c r="S7" t="n">
-        <v>0.002094483245871803</v>
+        <v>0.3111150433831364</v>
       </c>
       <c r="T7" t="n">
-        <v>79.81003613091549</v>
+        <v>63.57238131135789</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[63.149106370011566, 96.47096589181942]</t>
+          <t>[47.42311436879508, 79.72164825392069]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.578293051807123e-12</v>
+        <v>4.379490103900707e-10</v>
       </c>
       <c r="W7" t="n">
-        <v>1.578293051807123e-12</v>
+        <v>4.379490103900707e-10</v>
       </c>
       <c r="X7" t="n">
-        <v>23.20628628628684</v>
+        <v>23.8998998999004</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.48922922922974</v>
+        <v>20.95055055055099</v>
       </c>
       <c r="Z7" t="n">
-        <v>24.92334334334394</v>
+        <v>26.8492492492498</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.99000000000062</v>
+        <v>25.40000000000053</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001189484911154559</v>
+        <v>0.001584296139746089</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001189484911154559</v>
+        <v>0.001584296139746089</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>51.35831428894544</v>
+        <v>37.09850568070408</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[20.268553208985622, 82.44807536890526]</t>
+          <t>[12.66976025500773, 61.52725110640043]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.001754687425042478</v>
+        <v>0.003736870202803999</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001754687425042478</v>
+        <v>0.003736870202803999</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1195000208572701</v>
+        <v>-0.2767368904063083</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.5849211547224238, 0.8239211964369639]</t>
+          <t>[-1.0188949146777704, 0.4654211338651537]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.7341835352911523</v>
+        <v>0.4565492699048339</v>
       </c>
       <c r="S8" t="n">
-        <v>0.7341835352911523</v>
+        <v>0.4565492699048339</v>
       </c>
       <c r="T8" t="n">
-        <v>65.57079869105294</v>
+        <v>57.44017915224416</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[47.82559134486547, 83.31600603724041]</t>
+          <t>[43.96211480603064, 70.91824349845767]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.260430953526793e-09</v>
+        <v>4.953126797602181e-11</v>
       </c>
       <c r="W8" t="n">
-        <v>2.260430953526793e-09</v>
+        <v>4.953126797602181e-11</v>
       </c>
       <c r="X8" t="n">
-        <v>25.49569569569631</v>
+        <v>1.118718718718743</v>
       </c>
       <c r="Y8" t="n">
-        <v>22.58190190190244</v>
+        <v>-1.881481481481518</v>
       </c>
       <c r="Z8" t="n">
-        <v>28.40948948949017</v>
+        <v>4.118918918919004</v>
       </c>
     </row>
     <row r="9">
@@ -1167,7 +1167,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.99000000000062</v>
+        <v>25.40000000000053</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008225533768491111</v>
+        <v>0.02641713325594897</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0008225533768491111</v>
+        <v>0.02641713325594897</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>43.38864011158402</v>
+        <v>37.02546424368096</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[12.936078094350059, 73.84120212881797]</t>
+          <t>[0.9018907188376915, 73.14903776852422]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.006238457525716168</v>
+        <v>0.04477341738075657</v>
       </c>
       <c r="O9" t="n">
-        <v>0.006238457525716168</v>
+        <v>0.04477341738075657</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.767315923399309</v>
+        <v>-0.6918422260157699</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.3962634015954638, -0.13836844520315417]</t>
+          <t>[-2.283079345852041, 0.8993948938205012]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.01792158802515131</v>
+        <v>0.3858451906337668</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01792158802515131</v>
+        <v>0.3858451906337668</v>
       </c>
       <c r="T9" t="n">
-        <v>63.57110103616438</v>
+        <v>63.20646533241076</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[48.051526479693635, 79.09067559263512]</t>
+          <t>[44.24265404103944, 82.17027662378209]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.49489531864333e-10</v>
+        <v>2.718295433190576e-08</v>
       </c>
       <c r="W9" t="n">
-        <v>1.49489531864333e-10</v>
+        <v>2.718295433190576e-08</v>
       </c>
       <c r="X9" t="n">
-        <v>3.173953953954033</v>
+        <v>2.796796796796851</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.5723523523523686</v>
+        <v>-3.635835835835914</v>
       </c>
       <c r="Z9" t="n">
-        <v>5.775555555555698</v>
+        <v>9.229429429429617</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.99000000000062</v>
+        <v>25.40000000000053</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.003935757214326929</v>
+        <v>7.731620010908991e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>0.003935757214326929</v>
+        <v>7.731620010908991e-05</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>42.41750954856681</v>
+        <v>50.52648508248384</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[8.929006744625823, 75.90601235250779]</t>
+          <t>[21.299184318024842, 79.75378584694283]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.0142076812678511</v>
+        <v>0.00111957578250399</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0142076812678511</v>
+        <v>0.00111957578250399</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.01889491467777</v>
+        <v>-0.9937370155499243</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.8742634850245414, -0.16352634433099933]</t>
+          <t>[-1.5597897459264631, -0.4276842851733855]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.02063653145957622</v>
+        <v>0.0009549273310984763</v>
       </c>
       <c r="S10" t="n">
-        <v>0.02063653145957622</v>
+        <v>0.0009549273310984763</v>
       </c>
       <c r="T10" t="n">
-        <v>64.17055228794914</v>
+        <v>68.76435248725426</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[46.43260123912269, 81.90850333677558]</t>
+          <t>[53.568162619900036, 83.96054235460848]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.839193185584122e-09</v>
+        <v>8.751888103120109e-12</v>
       </c>
       <c r="W10" t="n">
-        <v>3.839193185584122e-09</v>
+        <v>8.751888103120109e-12</v>
       </c>
       <c r="X10" t="n">
-        <v>4.214594594594693</v>
+        <v>4.017217217217301</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.6764164164164281</v>
+        <v>1.728928928928966</v>
       </c>
       <c r="Z10" t="n">
-        <v>7.752772772772959</v>
+        <v>6.305505505505635</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_8_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_8_square_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.78000000000043</v>
+        <v>24.05000000000032</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002927170793914469</v>
+        <v>9.18351749534807e-07</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002927170793914469</v>
+        <v>9.18351749534807e-07</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>38.7019213866825</v>
+        <v>71.99159628671278</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[12.590388441705045, 64.81345433165995]</t>
+          <t>[41.35864563895892, 102.62454693446664]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.004569479995429004</v>
+        <v>2.222318152877989e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>0.004569479995429004</v>
+        <v>2.222318152877989e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>1.691868716347656</v>
+        <v>1.062921238151501</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.798763297309117, 2.5849741353861955]</t>
+          <t>[0.6100790538502707, 1.515763422452732]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.0004120771717011085</v>
+        <v>2.265579905924575e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0004120771717011085</v>
+        <v>2.265579905924575e-05</v>
       </c>
       <c r="T2" t="n">
-        <v>56.82274686123396</v>
+        <v>78.49911058628003</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[41.469366372470034, 72.17612734999788]</t>
+          <t>[61.964796116446905, 95.03342505611315]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.171652635496457e-09</v>
+        <v>2.073674565394867e-12</v>
       </c>
       <c r="W2" t="n">
-        <v>2.171652635496457e-09</v>
+        <v>2.073674565394867e-12</v>
       </c>
       <c r="X2" t="n">
-        <v>18.10750750750783</v>
+        <v>19.98148148148175</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.58522522522548</v>
+        <v>18.2481481481484</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.62978978979017</v>
+        <v>21.7148148148151</v>
       </c>
     </row>
     <row r="3">
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.78000000000043</v>
+        <v>24.05000000000032</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02032794810773719</v>
+        <v>0.005672976673673946</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02032794810773719</v>
+        <v>0.005672976673673946</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>40.26889355157563</v>
+        <v>40.53794322283404</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[2.4970651885962383, 78.04072191455502]</t>
+          <t>[9.937962444169386, 71.1379240014987]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.03719675012642609</v>
+        <v>0.01056382585286753</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03719675012642609</v>
+        <v>0.01056382585286753</v>
       </c>
       <c r="P3" t="n">
-        <v>1.062921238151501</v>
+        <v>1.150973885098963</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-0.20755266780473214, 2.333395144107735]</t>
+          <t>[0.30818426431611634, 1.9937635058818106]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.09889962121933005</v>
+        <v>0.008538467445669662</v>
       </c>
       <c r="S3" t="n">
-        <v>0.09889962121933005</v>
+        <v>0.008538467445669662</v>
       </c>
       <c r="T3" t="n">
-        <v>78.77305579097774</v>
+        <v>60.79000025664221</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[59.025608608510765, 98.5205029734447]</t>
+          <t>[43.8637683897726, 77.71623212351182]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>3.072868626219361e-10</v>
+        <v>4.595249292194126e-09</v>
       </c>
       <c r="W3" t="n">
-        <v>3.072868626219361e-10</v>
+        <v>4.595249292194126e-09</v>
       </c>
       <c r="X3" t="n">
-        <v>20.58798798798835</v>
+        <v>19.64444444444471</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.57741741741769</v>
+        <v>16.41851851851874</v>
       </c>
       <c r="Z3" t="n">
-        <v>25.59855855855901</v>
+        <v>22.87037037037067</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.78000000000043</v>
+        <v>24.05000000000032</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000552032042940187</v>
+        <v>4.420096258450634e-06</v>
       </c>
       <c r="I4" t="n">
-        <v>0.000552032042940187</v>
+        <v>4.420096258450634e-06</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>40.47540408549336</v>
+        <v>58.08146863136645</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[14.993140263636107, 65.95766790735061]</t>
+          <t>[30.795186278736523, 85.36775098399637]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.002526144366455707</v>
+        <v>9.434672074615236e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002526144366455707</v>
+        <v>9.434672074615236e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>1.050342288587578</v>
+        <v>0.9622896416401163</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.3962369112635775, 1.7044476659115793]</t>
+          <t>[0.4842895582110396, 1.440289725069193]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.002287978266036106</v>
+        <v>0.0001966711421070855</v>
       </c>
       <c r="S4" t="n">
-        <v>0.002287978266036106</v>
+        <v>0.0001966711421070855</v>
       </c>
       <c r="T4" t="n">
-        <v>59.55796152866405</v>
+        <v>60.74239163476643</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[45.86021082775358, 73.25571222957453]</t>
+          <t>[46.31182086676087, 75.17296240277199]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.798139497883767e-11</v>
+        <v>7.020894976506042e-11</v>
       </c>
       <c r="W4" t="n">
-        <v>2.798139497883767e-11</v>
+        <v>7.020894976506042e-11</v>
       </c>
       <c r="X4" t="n">
-        <v>20.63759759759796</v>
+        <v>20.36666666666694</v>
       </c>
       <c r="Y4" t="n">
-        <v>18.05789789789821</v>
+        <v>18.53703703703729</v>
       </c>
       <c r="Z4" t="n">
-        <v>23.2172972972977</v>
+        <v>22.19629629629659</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.78000000000043</v>
+        <v>24.05000000000032</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00481580088057465</v>
+        <v>0.0008700330943930412</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00481580088057465</v>
+        <v>0.0008700330943930412</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>42.48786522296487</v>
+        <v>47.99811311941933</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[10.683753713985723, 74.29197673194402]</t>
+          <t>[18.324837939268093, 77.67138829957057]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.00997164277332141</v>
+        <v>0.00213886995904411</v>
       </c>
       <c r="O5" t="n">
-        <v>0.00997164277332141</v>
+        <v>0.00213886995904411</v>
       </c>
       <c r="P5" t="n">
-        <v>1.062921238151501</v>
+        <v>1.201289683354656</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.2201316173686534, 1.9057108589343494]</t>
+          <t>[0.4968685077749626, 1.9057108589343503]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.01460119155763562</v>
+        <v>0.00128501544700077</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01460119155763562</v>
+        <v>0.00128501544700077</v>
       </c>
       <c r="T5" t="n">
-        <v>60.33201655924363</v>
+        <v>59.08396913116736</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[42.83518103221765, 77.82885208626962]</t>
+          <t>[42.28530289609719, 75.88263536623754]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.229702939475885e-08</v>
+        <v>7.651027589261616e-09</v>
       </c>
       <c r="W5" t="n">
-        <v>1.229702939475885e-08</v>
+        <v>7.651027589261616e-09</v>
       </c>
       <c r="X5" t="n">
-        <v>20.58798798798835</v>
+        <v>19.45185185185211</v>
       </c>
       <c r="Y5" t="n">
-        <v>17.26414414414445</v>
+        <v>16.75555555555577</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.91183183183225</v>
+        <v>22.14814814814844</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.40000000000053</v>
+        <v>25.60000000000056</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3182479453704019</v>
+        <v>0.0062555777718033</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3182479453704019</v>
+        <v>0.0062555777718033</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>21.82979148571616</v>
+        <v>35.4279598065832</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-13.710402843472433, 57.36998581490475]</t>
+          <t>[6.634459287005271, 64.22146032616112]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.2224599450487097</v>
+        <v>0.01702298916957345</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2224599450487097</v>
+        <v>0.01702298916957345</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.0503157982556921</v>
+        <v>0.6352369529781159</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-3.163605815326658, 3.062974218815274]</t>
+          <t>[-0.10692107129334794, 1.3773949772495797]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.9741764665220474</v>
+        <v>0.09158411187904747</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9741764665220474</v>
+        <v>0.09158411187904747</v>
       </c>
       <c r="T6" t="n">
-        <v>65.46664107622792</v>
+        <v>60.60197098872563</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[45.69510862768205, 85.23817352477377]</t>
+          <t>[46.00635616007658, 75.19758581737467]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>3.160205430674523e-08</v>
+        <v>1.028428453508923e-10</v>
       </c>
       <c r="W6" t="n">
-        <v>3.160205430674523e-08</v>
+        <v>1.028428453508923e-10</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2034034034034065</v>
+        <v>23.01181181181232</v>
       </c>
       <c r="Y6" t="n">
-        <v>-12.38218218218244</v>
+        <v>19.98798798798842</v>
       </c>
       <c r="Z6" t="n">
-        <v>12.78898898898925</v>
+        <v>26.03563563563621</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.40000000000053</v>
+        <v>25.60000000000056</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001737056516448621</v>
+        <v>6.881925865176441e-06</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001737056516448621</v>
+        <v>6.881925865176441e-06</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>44.72107626574949</v>
+        <v>46.45245522010925</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[14.670378177731862, 74.77177435376711]</t>
+          <t>[28.05852473709389, 64.84638570312461]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.00442123268499417</v>
+        <v>6.894119424671885e-06</v>
       </c>
       <c r="O7" t="n">
-        <v>0.00442123268499417</v>
+        <v>6.894119424671885e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3710790121357324</v>
+        <v>-0.006289474781961957</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.3585000625718058, 1.1006580868432705]</t>
+          <t>[-0.47171060864711745, 0.45913165908319353]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.3111150433831364</v>
+        <v>0.9784065148125782</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3111150433831364</v>
+        <v>0.9784065148125782</v>
       </c>
       <c r="T7" t="n">
-        <v>63.57238131135789</v>
+        <v>66.70154136517151</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[47.42311436879508, 79.72164825392069]</t>
+          <t>[55.22157625143166, 78.18150647891136]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>4.379490103900707e-10</v>
+        <v>2.886579864025407e-15</v>
       </c>
       <c r="W7" t="n">
-        <v>4.379490103900707e-10</v>
+        <v>2.886579864025407e-15</v>
       </c>
       <c r="X7" t="n">
-        <v>23.8998998999004</v>
+        <v>0.02562562562562931</v>
       </c>
       <c r="Y7" t="n">
-        <v>20.95055055055099</v>
+        <v>-1.870670670670713</v>
       </c>
       <c r="Z7" t="n">
-        <v>26.8492492492498</v>
+        <v>1.921921921921971</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.40000000000053</v>
+        <v>25.60000000000056</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001584296139746089</v>
+        <v>0.03692029228751692</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001584296139746089</v>
+        <v>0.03692029228751692</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>37.09850568070408</v>
+        <v>31.54026526538506</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[12.66976025500773, 61.52725110640043]</t>
+          <t>[1.7221686396386389, 61.35836189113148]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.003736870202803999</v>
+        <v>0.0386368889821489</v>
       </c>
       <c r="O8" t="n">
-        <v>0.003736870202803999</v>
+        <v>0.0386368889821489</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.2767368904063083</v>
+        <v>-0.2390000417145384</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.0188949146777704, 0.4654211338651537]</t>
+          <t>[-1.515763422452732, 1.0377633390236554]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.4565492699048339</v>
+        <v>0.7079277387117686</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4565492699048339</v>
+        <v>0.7079277387117686</v>
       </c>
       <c r="T8" t="n">
-        <v>57.44017915224416</v>
+        <v>73.64630406530173</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[43.96211480603064, 70.91824349845767]</t>
+          <t>[57.08751407886723, 90.20509405173624]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.953126797602181e-11</v>
+        <v>1.453326348155315e-11</v>
       </c>
       <c r="W8" t="n">
-        <v>4.953126797602181e-11</v>
+        <v>1.453326348155315e-11</v>
       </c>
       <c r="X8" t="n">
-        <v>1.118718718718743</v>
+        <v>0.973773773773793</v>
       </c>
       <c r="Y8" t="n">
-        <v>-1.881481481481518</v>
+        <v>-4.228228228228321</v>
       </c>
       <c r="Z8" t="n">
-        <v>4.118918918919004</v>
+        <v>6.175775775775907</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.40000000000053</v>
+        <v>25.60000000000056</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02641713325594897</v>
+        <v>0.01935671410171369</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02641713325594897</v>
+        <v>0.01935671410171369</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>37.02546424368096</v>
+        <v>36.74395733555641</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[0.9018907188376915, 73.14903776852422]</t>
+          <t>[3.948637917318422, 69.5392767537944]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.04477341738075657</v>
+        <v>0.02893679723351972</v>
       </c>
       <c r="O9" t="n">
-        <v>0.04477341738075657</v>
+        <v>0.02893679723351972</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.6918422260157699</v>
+        <v>-0.4402632347373086</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-2.283079345852041, 0.8993948938205012]</t>
+          <t>[-1.528342372016657, 0.6478159025420398]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.3858451906337668</v>
+        <v>0.4193903261590302</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3858451906337668</v>
+        <v>0.4193903261590302</v>
       </c>
       <c r="T9" t="n">
-        <v>63.20646533241076</v>
+        <v>63.94093866990804</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[44.24265404103944, 82.17027662378209]</t>
+          <t>[46.17942864669797, 81.7024486931181]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.718295433190576e-08</v>
+        <v>4.335000802768718e-09</v>
       </c>
       <c r="W9" t="n">
-        <v>2.718295433190576e-08</v>
+        <v>4.335000802768718e-09</v>
       </c>
       <c r="X9" t="n">
-        <v>2.796796796796851</v>
+        <v>1.793793793793835</v>
       </c>
       <c r="Y9" t="n">
-        <v>-3.635835835835914</v>
+        <v>-2.639439439439498</v>
       </c>
       <c r="Z9" t="n">
-        <v>9.229429429429617</v>
+        <v>6.227027027027169</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.40000000000053</v>
+        <v>25.60000000000056</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>7.731620010908991e-05</v>
+        <v>0.0001159906887254758</v>
       </c>
       <c r="I10" t="n">
-        <v>7.731620010908991e-05</v>
+        <v>0.0001159906887254758</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>50.52648508248384</v>
+        <v>49.55237206639853</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[21.299184318024842, 79.75378584694283]</t>
+          <t>[20.18575404043041, 78.91899009236666]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.00111957578250399</v>
+        <v>0.001427861906690087</v>
       </c>
       <c r="O10" t="n">
-        <v>0.00111957578250399</v>
+        <v>0.001427861906690087</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.9937370155499243</v>
+        <v>-1.044052813805617</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.5597897459264631, -0.4276842851733855]</t>
+          <t>[-1.635263443310003, -0.4528421843012316]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.0009549273310984763</v>
+        <v>0.0008975134511877148</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0009549273310984763</v>
+        <v>0.0008975134511877148</v>
       </c>
       <c r="T10" t="n">
-        <v>68.76435248725426</v>
+        <v>68.90599323158207</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[53.568162619900036, 83.96054235460848]</t>
+          <t>[53.494707666591395, 84.31727879657275]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>8.751888103120109e-12</v>
+        <v>1.245314962261546e-11</v>
       </c>
       <c r="W10" t="n">
-        <v>8.751888103120109e-12</v>
+        <v>1.245314962261546e-11</v>
       </c>
       <c r="X10" t="n">
-        <v>4.017217217217301</v>
+        <v>4.253853853853947</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.728928928928966</v>
+        <v>1.845045045045084</v>
       </c>
       <c r="Z10" t="n">
-        <v>6.305505505505635</v>
+        <v>6.662662662662809</v>
       </c>
     </row>
   </sheetData>
